--- a/biology/Zoologie/Harpymimus/Harpymimus.xlsx
+++ b/biology/Zoologie/Harpymimus/Harpymimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpymimus okladnikovi
 Harpymimus est un genre éteint de dinosaures théropodes, un ornithomimosaurien basal. Il a été découvert dans la province de Dundgovi en Mongolie, dans la formation géologique de Khuren Dukh (précédemment nommée formation de Shinekudug), datée du Crétacé inférieur (Albien), soit il y environ 105 Ma (millions d'années).
-L'espèce type et seule espèce, Harpymimus okladnikovi, a été décrite par Rinchen Barsbold et Altangerel Perle en 1984[1].
+L'espèce type et seule espèce, Harpymimus okladnikovi, a été décrite par Rinchen Barsbold et Altangerel Perle en 1984.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Harpymimus est tiré des mots grecs ἅρπυια (harpyia, « harpie ») et μῖμος (mimos, « qui mime »), une référence aux Harpies de la mythologie grecque. Le nom spécifique a été donné en l'honneur de l'archéologue soviétique Alekseï Okladnikov[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Harpymimus est tiré des mots grecs ἅρπυια (harpyia, « harpie ») et μῖμος (mimos, « qui mime »), une référence aux Harpies de la mythologie grecque. Le nom spécifique a été donné en l'honneur de l'archéologue soviétique Alekseï Okladnikov.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1981, une expédition soviético-mongole découvre le squelette d'un théropode dans le désert de Gobi. En 1984, les restes sont décrits brièvement par Rinchen Barsbold et Altangerel Perle, qui créent l'espèce type Harpymimus okladnikovi[1]. 
-Harpymimus n'est décrit en détail pour la première fois qu'en 2004 par Yoshitsugu Kobayashi[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1981, une expédition soviético-mongole découvre le squelette d'un théropode dans le désert de Gobi. En 1984, les restes sont décrits brièvement par Rinchen Barsbold et Altangerel Perle, qui créent l'espèce type Harpymimus okladnikovi. 
+Harpymimus n'est décrit en détail pour la première fois qu'en 2004 par Yoshitsugu Kobayashi.
 </t>
         </is>
       </c>
@@ -576,16 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est basée sur l'holotype IGM 100/29, qui est un squelette presque complet mais écrasé lors de sa fossilisation.
-Crâne
-Harpymimus fait partie des quelques ornithomimosauriens primitifs qui possèdent encore des dents mais uniquement sur la mâchoire inférieure (mandibule), comme les genres Shenzhousaurus et Kinnareemimus[3].
-Harpymimus possède ainsi 11 petites dents implantées à l'avant de chacun de ses os dentaires[4].
-Le crâne est conservé en entier mais très écrasé. Il mesure 26,2 centimètres de long, deux fois plus long que haut. Son cou est quant à lui environ deux fois plus long que le crâne.
-La mâchoire supérieure est couverte par un bec qui, de concert avec les dents de la mandibule, lui servait à saisir et maintenir sa nourriture.
-Corps
-L'aspect général d'Harpymimus rappelle beaucoup celui des ornithomimosauriens plus évolués avec un long cou, de longs bras terminés par des griffes acérées, et de longues pattes. 
 </t>
         </is>
       </c>
@@ -611,14 +622,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Crâne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpymimus fait partie des quelques ornithomimosauriens primitifs qui possèdent encore des dents mais uniquement sur la mâchoire inférieure (mandibule), comme les genres Shenzhousaurus et Kinnareemimus.
+Harpymimus possède ainsi 11 petites dents implantées à l'avant de chacun de ses os dentaires.
+Le crâne est conservé en entier mais très écrasé. Il mesure 26,2 centimètres de long, deux fois plus long que haut. Son cou est quant à lui environ deux fois plus long que le crâne.
+La mâchoire supérieure est couverte par un bec qui, de concert avec les dents de la mandibule, lui servait à saisir et maintenir sa nourriture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpymimus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpymimus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aspect général d'Harpymimus rappelle beaucoup celui des ornithomimosauriens plus évolués avec un long cou, de longs bras terminés par des griffes acérées, et de longues pattes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harpymimus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpymimus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description initiale en 1984, ses inventeurs ont créé la famille des Harpymimidae pour abriter leur nouveau genre[1].
-En 2005, Y. Kobayashi et R. Barsbold conduisent une analyse phylogénétique détaillée d'Harpymimus et déduisent qu'il est une base du clade formé de  Garudimimus brevipes et des Ornithomimidae. Il est cependant plus dérivé (évolué) que Pelecanimimus polyodon[4].
-Cette position d'Harpymimus est confirmée dans le cladogramme établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François Escuillié et Tsogtbaatar Chinzorig qui évalue les principaux genres (les mieux documentés) d'ornithomimosauriens[5]. Il montre la place d'Harpymimus parmi les ornithomimosauriens basaux :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description initiale en 1984, ses inventeurs ont créé la famille des Harpymimidae pour abriter leur nouveau genre.
+En 2005, Y. Kobayashi et R. Barsbold conduisent une analyse phylogénétique détaillée d'Harpymimus et déduisent qu'il est une base du clade formé de  Garudimimus brevipes et des Ornithomimidae. Il est cependant plus dérivé (évolué) que Pelecanimimus polyodon.
+Cette position d'Harpymimus est confirmée dans le cladogramme établi en 2014 par Yuong-Nam Lee, Rinchen Barsbold, Philip J. Currie, Yoshitsugu Kobayashi, Hang-Jae Lee, Pascal Godefroit, François Escuillié et Tsogtbaatar Chinzorig qui évalue les principaux genres (les mieux documentés) d'ornithomimosauriens. Il montre la place d'Harpymimus parmi les ornithomimosauriens basaux :
 </t>
         </is>
       </c>
